--- a/output/item/슬리퍼/2021-12-19_슬리퍼.xlsx
+++ b/output/item/슬리퍼/2021-12-19_슬리퍼.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32490</t>
+          <t>33900</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -946,7 +946,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>118920</t>
+          <t>118870</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -1113,22 +1113,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>크록스 슬라이드 사무실 슬리퍼 205733</t>
+          <t>크록스 크록밴드Ⅲ 205733 슬리퍼 3종 모음 택1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22120796617</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20471647170</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2212079/22120796617.20200305163510.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2047164/20471647170.20210226151139.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>15000</t>
+          <t>14040</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1175,22 +1175,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>크록스 크록밴드Ⅲ 205733 슬리퍼 3종 모음 택1</t>
+          <t>뉴발란스 NEW BALANCE 슬리퍼 unisex SD1501</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20471647170</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25799671255</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2047164/20471647170.20210226151139.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2579967/25799671255.20210130175051.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>14040</t>
+          <t>42550</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>크록스</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>크록스</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1237,22 +1237,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>뉴발란스 NEW BALANCE 슬리퍼 unisex SD1501</t>
+          <t>푸마 로얄캣 컴포트 벨크로 슬리퍼 372280-02</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25799671255</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25573193543</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2579967/25799671255.20210130175051.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2557319/25573193543.20210112044245.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>42550</t>
+          <t>8850</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1268,14 +1268,10 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>뉴발란스</t>
-        </is>
-      </c>
+          <t>푸마</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>패션잡화</t>
@@ -1299,22 +1295,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>푸마 로얄캣 컴포트 벨크로 슬리퍼 372280-02</t>
+          <t>크록스 슬라이드 사무실 슬리퍼 205733</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25573193543</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22120796617</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2557319/25573193543.20210112044245.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2212079/22120796617.20200305163510.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>8850</t>
+          <t>15000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1330,10 +1326,14 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>푸마</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>크록스</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>크록스</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>패션잡화</t>
@@ -1481,22 +1481,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>언더아머 UA 남성 플레이메이커 픽스드 스트랩 슬리퍼 3000061</t>
+          <t>남성 여성 커플 겨울 털 슬리퍼 실내화 WT9771</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19787857788</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17234431097</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1978785/19787857788.20200326013919.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1723443/17234431097.20211028041233.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>17900</t>
+          <t>9900</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1510,16 +1510,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>언더아머</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>언더아머</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>패션잡화</t>
@@ -1543,22 +1535,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>나이키 베나시 JDI 슬리퍼 343880-090</t>
+          <t>언더아머 UA 남성 플레이메이커 픽스드 스트랩 슬리퍼 3000061</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=6738383315</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19787857788</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_6738383/6738383315.20191231170922.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1978785/19787857788.20200326013919.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23790</t>
+          <t>17900</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1574,12 +1566,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>언더아머</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>언더아머</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1605,22 +1597,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>아디다스 슬리퍼 아딜렛 컴포트 EG1850</t>
+          <t>나이키 베나시 JDI 슬리퍼 343880-090</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25855940126</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=6738383315</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2585594/25855940126.20210203214501.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_6738383/6738383315.20191231170922.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>16900</t>
+          <t>23790</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1636,12 +1628,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1667,22 +1659,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>남성 여성 커플 겨울 털 슬리퍼 실내화 WT9771</t>
+          <t>아디다스 슬리퍼 아딜렛 컴포트 EG1850</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17234431097</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25855940126</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1723443/17234431097.20211028041233.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2585594/25855940126.20210203214501.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>9900</t>
+          <t>16900</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1696,8 +1688,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>아디다스</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>아디다스</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>패션잡화</t>
@@ -1899,22 +1899,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>노스페이스 써모볼 트랙션 뮬 파이브 NS93K80</t>
+          <t>디스커버리익스페디션 남여공용 레스터 뮬 VE 겨울 슬리퍼 DXSH4A061</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24803378099</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24687387541</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2480337/24803378099.20211019180727.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2468738/24687387541.20210226151805.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>35990</t>
+          <t>45390</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1930,12 +1930,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>노스페이스</t>
+          <t>디스커버리익스페디션</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>영원아웃도어</t>
+          <t>F&amp;F</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2015,22 +2015,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>휠라 TAPER 테이퍼 슬라이드 슬리퍼 1SM00559</t>
+          <t>노스페이스 써모볼 트랙션 뮬 파이브 NS93K80</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26776492600</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24803378099</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2677649/26776492600.20210415201715.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2480337/24803378099.20211019180727.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18340</t>
+          <t>35990</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -2046,12 +2046,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>휠라</t>
+          <t>노스페이스</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>휠라</t>
+          <t>영원아웃도어</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2139,22 +2139,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>디스커버리익스페디션 남여공용 레스터 뮬 VE 겨울 슬리퍼 DXSH4A061</t>
+          <t>휠라 TAPER 테이퍼 슬라이드 슬리퍼 1SM00559</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24687387541</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26776492600</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2468738/24687387541.20210226151805.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2677649/26776492600.20210415201715.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>45390</t>
+          <t>18340</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2170,12 +2170,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>디스커버리익스페디션</t>
+          <t>휠라</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>F&amp;F</t>
+          <t>휠라</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2379,22 +2379,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>푸마 공용 스커프 털 슬리퍼 Scuff Sherpa 셰르파 슬리퍼 384943</t>
+          <t>크록스 공용 BAYABAND SLIDE NPP 21SUSL205392</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29274311926</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25635123577</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2927431/29274311926.20211201172837.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2563512/25635123577.20210116233557.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>31900</t>
+          <t>16150</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2410,14 +2410,10 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>푸마</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>푸마</t>
-        </is>
-      </c>
+          <t>크록스</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>패션잡화</t>
@@ -2441,22 +2437,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>크록스 공용 BAYABAND SLIDE NPP 21SUSL205392</t>
+          <t>푸마 공용 스커프 털 슬리퍼 Scuff Sherpa 셰르파 슬리퍼 384943</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25635123577</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29274311926</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2563512/25635123577.20210116233557.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2927431/29274311926.20211201172837.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>16170</t>
+          <t>31900</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2472,10 +2468,14 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>크록스</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr"/>
+          <t>푸마</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>푸마</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>패션잡화</t>
@@ -2499,45 +2499,37 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>노스페이스 화이트라벨 공용 뮬 플리스 전색상 NS93L96</t>
+          <t>코스트코 털크록스 크록스털신 가을겨울 발편한 따뜻한 주방 작업 사무실 털슬리퍼 280</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28563299144</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83422961060</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2856329/28563299144.20211206022437.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8342296/83422961060.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>50460</t>
+          <t>22800</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>We Are Family</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>노스페이스</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>영원아웃도어</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>패션잡화</t>
@@ -2561,22 +2553,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>나이키 슬리퍼 오프코트 슬라이드 BQ4639-001</t>
+          <t>노스페이스 화이트라벨 공용 뮬 플리스 전색상 NS93L96</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25939493781</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28563299144</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2593949/25939493781.20210209191539.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2856329/28563299144.20211206022437.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>13900</t>
+          <t>50460</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2592,12 +2584,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>노스페이스</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>영원아웃도어</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2623,37 +2615,45 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>코스트코 털크록스 크록스털신 가을겨울 발편한 따뜻한 주방 작업 사무실 털슬리퍼 280</t>
+          <t>나이키 슬리퍼 오프코트 슬라이드 BQ4639-001</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83422961060</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25939493781</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8342296/83422961060.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2593949/25939493781.20210209191539.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>22800</t>
+          <t>12940</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>We Are Family</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>나이키</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>나이키</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>패션잡화</t>
@@ -3045,22 +3045,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>노스페이스 남여공용 뮬 플리스 NS93M55A</t>
+          <t>수부 수부 방한 패딩 슬리퍼 다운 샌들 SUBU-BK</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29470557597</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29861176252</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2947055/29470557597.20211030230654.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2986117/29861176252.20211127220326.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>56210</t>
+          <t>42120</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -3074,16 +3074,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>노스페이스</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>영원아웃도어</t>
-        </is>
-      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>패션잡화</t>
@@ -3107,22 +3099,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>수부 수부 방한 패딩 슬리퍼 다운 샌들 SUBU-BK</t>
+          <t>아디다스 아딜렛 아쿠아 슬리퍼 F35550</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29861176252</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17789523725</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2986117/29861176252.20211127220326.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1778952/17789523725.20191219040044.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>42130</t>
+          <t>13730</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3136,7 +3128,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>아디다스</t>
+        </is>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -3285,22 +3281,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>아디다스 아딜렛 아쿠아 슬리퍼 F35550</t>
+          <t>베어파우 ROGER 양털슬리퍼 mens</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17789523725</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29629419203</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1778952/17789523725.20191219040044.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2962941/29629419203.20211111045628.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>13730</t>
+          <t>55616</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3316,7 +3312,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>베어파우</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -3343,22 +3339,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>베어파우 ROGER 양털슬리퍼 mens</t>
+          <t>오즈웨어 메이슨 남성 슬리퍼 OB687</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29629419203</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28849172896</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2962941/29629419203.20211111045628.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2884917/28849172896.20211202022518.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>55616</t>
+          <t>31880</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3374,7 +3370,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>베어파우</t>
+          <t>오즈웨어</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -3401,22 +3397,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>오즈웨어 메이슨 남성 슬리퍼 OB687</t>
+          <t>페이퍼플레인 남녀공용 방한화 털슬리퍼 실내화 PP1508</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28849172896</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28807665982</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2884917/28849172896.20211202022518.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2880766/28807665982.20210912003012.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>31880</t>
+          <t>17540</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3430,11 +3426,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>오즈웨어</t>
-        </is>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -3459,22 +3451,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>페이퍼플레인 남녀공용 방한화 털슬리퍼 실내화 PP1508</t>
+          <t>아디다스 슬리퍼 A23- 듀라모 슬라이드 FY6034</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28807665982</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29050353369</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2880766/28807665982.20210912003012.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2905035/29050353369.20211004011549.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>17540</t>
+          <t>18600</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3488,8 +3480,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>아디다스</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>아디다스</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>패션잡화</t>
@@ -3575,22 +3575,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>아디다스 슬리퍼 A23- 듀라모 슬라이드 FY6034</t>
+          <t>뉴발란스 1501 슬라이드 벨크로 슬리퍼 남자 여자 학교 찍찍이 SD1501ILG</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29050353369</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28594296896</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2905035/29050353369.20211004011549.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2859429/28594296896.20210827032052.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>18600</t>
+          <t>18900</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3606,12 +3606,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3637,22 +3637,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>뉴발란스 1501 슬라이드 벨크로 슬리퍼 남자 여자 학교 찍찍이 SD1501ILG</t>
+          <t>노스페이스 남여공용 뮬 플리스 NS93M55A</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28594296896</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29470557597</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2859429/28594296896.20210827032052.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2947055/29470557597.20211030230654.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>18900</t>
+          <t>56210</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>노스페이스</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>영원아웃도어</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4005,22 +4005,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>나이키 빅토리원 슬라이드 슬리퍼 남자 여자 학생 실내화 CN9675-100</t>
+          <t>아디다스 아딜렛 컴포트 S82137</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27427758907</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12386868444</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2742775/27427758907.20210926004556.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1238686/12386868444.20190514114307.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>13900</t>
+          <t>21360</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -4036,14 +4036,10 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>나이키</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>나이키</t>
-        </is>
-      </c>
+          <t>아디다스</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>패션잡화</t>
@@ -4067,22 +4063,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>아디다스 아딜렛 컴포트 S82137</t>
+          <t>나이키 빅토리원 슬라이드 슬리퍼 남자 여자 학생 실내화 CN9675-100</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12386868444</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27427758907</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1238686/12386868444.20190514114307.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2742775/27427758907.20210926004556.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>21360</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -4098,10 +4094,14 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>아디다스</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr"/>
+          <t>나이키</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>나이키</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>패션잡화</t>
@@ -4187,22 +4187,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>아디다스 F ALPHABOUNCE SLIDE FZ0387</t>
+          <t>내셔널지오그래픽 신발 다이브 플러스 V2 슬리퍼 N211AFW150</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28101115355</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26070542747</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2810111/28101115355.20210722045105.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2607054/26070542747.20210220185157.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>26210</t>
+          <t>36880</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4218,12 +4218,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>내셔널지오그래픽</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>더네이쳐홀딩스</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4249,22 +4249,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>내셔널지오그래픽 신발 다이브 플러스 V2 슬리퍼 N211AFW150</t>
+          <t>아디다스 F ALPHABOUNCE SLIDE FZ0387</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26070542747</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28101115355</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2607054/26070542747.20210220185157.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2810111/28101115355.20210722045105.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>36880</t>
+          <t>26210</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4280,12 +4280,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>내셔널지오그래픽</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>더네이쳐홀딩스</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4373,22 +4373,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>아디다스 아딜렛 크록 남여공용</t>
+          <t>우포스 슬리퍼 OOAHH BLACK</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27618863033</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28862908818</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2761886/27618863033.20210805165636.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2886290/28862908818.20210915225712.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>16800</t>
+          <t>62000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4404,12 +4404,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>우포스</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>우포스</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4435,22 +4435,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>휠라 드리프터 슬라이드 슬리퍼 WWT WNV 1SM00560</t>
+          <t>아디다스 아딜렛 크록 남여공용</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23001855599</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27618863033</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2300185/23001855599.20200530160048.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2761886/27618863033.20210805165636.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>14200</t>
+          <t>16800</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4466,12 +4466,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>휠라</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>휠라</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4497,22 +4497,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>우포스 슬리퍼 OOAHH BLACK</t>
+          <t>휠라 드리프터 슬라이드 슬리퍼 WWT WNV 1SM00560</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28862908818</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23001855599</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2886290/28862908818.20210915225712.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2300185/23001855599.20200530160048.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>62000</t>
+          <t>14200</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4528,12 +4528,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>우포스</t>
+          <t>휠라</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>우포스</t>
+          <t>휠라</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4559,22 +4559,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>호카오네오네 호카 남성 오라 리커버리 슬리퍼 BBLC 1099674</t>
+          <t>버켄스탁 취리히 타우페 레귤러 슬리퍼 1009532</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28546707443</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22921071485</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2854670/28546707443.20210824023952.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2292107/22921071485.20200827153617.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>40260</t>
+          <t>59410</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4590,10 +4590,14 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>호카오네오네</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr"/>
+          <t>버켄스탁</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>버켄스탁</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>패션잡화</t>
@@ -4617,22 +4621,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>디스커버리익스페디션 공용 버킷 슬라이드 디워커 DXSH9D031</t>
+          <t>뉴발란스 NB 슬라이드 슬리퍼 남자 여자 실내화 신발 SD1101HBB</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26210520128</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29610849077</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2621052/26210520128.20210316105516.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2961084/29610849077.20211109220148.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>46630</t>
+          <t>14780</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4648,12 +4652,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>디스커버리익스페디션</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>F&amp;F</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4679,22 +4683,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>버켄스탁 취리히 타우페 레귤러 슬리퍼 1009532</t>
+          <t>호카오네오네 호카 남성 오라 리커버리 슬리퍼 BBLC 1099674</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22921071485</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28546707443</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2292107/22921071485.20200827153617.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2854670/28546707443.20210824023952.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>59410</t>
+          <t>40260</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -4710,14 +4714,10 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>버켄스탁</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>버켄스탁</t>
-        </is>
-      </c>
+          <t>호카오네오네</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>패션잡화</t>
@@ -4741,22 +4741,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>뉴발란스 NB 슬라이드 슬리퍼 남자 여자 실내화 신발 SD1101HBB</t>
+          <t>디스커버리익스페디션 공용 버킷 슬라이드 디워커 DXSH9D031</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29610849077</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26210520128</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2961084/29610849077.20211109220148.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2621052/26210520128.20210316105516.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>14780</t>
+          <t>46630</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>디스커버리익스페디션</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>F&amp;F</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4803,22 +4803,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>나이키 250 오프코트 슬라이드 슬리퍼 BQ4639-012</t>
+          <t>아디다스 아딜렛 컴포트 슬리퍼 CG3425</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29173200630</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27508294892</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2917320/29173200630.20211128025853.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2750829/27508294892.20210609205409.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>25700</t>
+          <t>21250</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -4834,12 +4834,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4865,22 +4865,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>아디다스 아딜렛 컴포트 슬리퍼 CG3425</t>
+          <t>나이키 250 오프코트 슬라이드 슬리퍼 BQ4639-012</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27508294892</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29173200630</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2750829/27508294892.20210609205409.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2917320/29173200630.20211128025853.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>21250</t>
+          <t>25700</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -4896,12 +4896,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -5113,22 +5113,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>디스커버리익스페디션 공용 버킷 슬라이드 커플 샌달 DXSH9A031</t>
+          <t>크록스 바야밴드 슬라이드 205392 4종 택1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22460663108</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22435037844</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2246066/22460663108.20210527124832.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2243503/22435037844.20200710121800.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>40120</t>
+          <t>26490</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -5144,12 +5144,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>디스커버리익스페디션</t>
+          <t>크록스</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>F&amp;F</t>
+          <t>크록스</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -5175,22 +5175,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>크록스 바야밴드 슬라이드 205392 4종 택1</t>
+          <t>디스커버리익스페디션 공용 버킷 슬라이드 커플 샌달 DXSH9A031</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22435037844</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22460663108</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2243503/22435037844.20200710121800.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2246066/22460663108.20210527124832.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>26490</t>
+          <t>40120</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -5206,12 +5206,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>크록스</t>
+          <t>디스커버리익스페디션</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>크록스</t>
+          <t>F&amp;F</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5291,22 +5291,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>국내산 버켄 보스턴 털슬리퍼 겨울 블로퍼 실내화 사무실용 남녀공용 커플</t>
+          <t>나이키 슬리퍼 빅토리 원 슬라이드 흰파 CN9675-102</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25360561376</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27443230819</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2536056/25360561376.20201224221553.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2744323/27443230819.20211024013559.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>12000</t>
+          <t>20610</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -5320,8 +5320,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>나이키</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>나이키</t>
+        </is>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>패션잡화</t>
@@ -5345,22 +5353,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>스포디노 어번 세련된 디자인의 다용도 슬리퍼</t>
+          <t>아디다스 남녀공용 슬리퍼 듀라모 에스엘 슬라이드 DURAMO SLIDE FY8786</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17223379786</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28660272452</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1722337/17223379786.20210811123348.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2866027/28660272452.20211021032432.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>5700</t>
+          <t>23360</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -5376,10 +5384,14 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>스포디노</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr"/>
+          <t>아디다스</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>아디다스</t>
+        </is>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>패션잡화</t>
@@ -5403,22 +5415,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>나이키 슬리퍼 빅토리 원 슬라이드 흰파 CN9675-102</t>
+          <t>푸마 20S S 팝캣 20 슬리퍼 블랙화이트 372279</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27443230819</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21522999017</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2744323/27443230819.20211024013559.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2152299/21522999017.20191214182522.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>20610</t>
+          <t>12110</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5434,12 +5446,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>푸마</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>푸마</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5465,22 +5477,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>아디다스 남녀공용 슬리퍼 듀라모 에스엘 슬라이드 DURAMO SLIDE FY8786</t>
+          <t>노스페이스화이트라벨 WL 공용 윈터 뮬 NS93M78</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28660272452</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29908716721</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2866027/28660272452.20211021032432.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2990871/29908716721.20211218014650.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>23360</t>
+          <t>70250</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -5496,14 +5508,10 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>아디다스</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>아디다스</t>
-        </is>
-      </c>
+          <t>노스페이스화이트라벨</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>패션잡화</t>
@@ -5527,22 +5535,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>푸마 20S S 팝캣 20 슬리퍼 블랙화이트 372279</t>
+          <t>콜맨 데임 DAME 남여공용 슬리퍼 캠핑슬리퍼</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21522999017</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23656428902</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2152299/21522999017.20191214182522.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2365642/23656428902.20200801180813.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>12110</t>
+          <t>27060</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -5558,12 +5566,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>푸마</t>
+          <t>콜맨</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>푸마</t>
+          <t>콜맨</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5589,22 +5597,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>노스페이스화이트라벨 WL 공용 윈터 뮬 NS93M78</t>
+          <t>나이키 슬리퍼 베네시 JDI 맨즈 343880-090</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29908716721</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28579009997</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2990871/29908716721.20211218014650.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2857900/28579009997.20210826021811.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>70250</t>
+          <t>25900</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -5620,10 +5628,14 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>노스페이스화이트라벨</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr"/>
+          <t>나이키</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>나이키</t>
+        </is>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>패션잡화</t>
@@ -5647,22 +5659,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>나이키 슬리퍼 베네시 JDI 맨즈 343880-090</t>
+          <t>뉴발란스 슬리퍼 1501 남여공용 쿠셔닝 SD1501IWT</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28579009997</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28577661847</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2857900/28579009997.20210826021811.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2857766/28577661847.20210825212742.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>25900</t>
+          <t>16450</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -5678,12 +5690,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5709,22 +5721,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>콜맨 데임 DAME 남여공용 슬리퍼 캠핑슬리퍼</t>
+          <t>아디다스 아딜렛 CF 슬리퍼 블랙 CG3427</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23656428902</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14240672379</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2365642/23656428902.20200801180813.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1424067/14240672379.20191216104750.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>27060</t>
+          <t>21375</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -5740,12 +5752,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>콜맨</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>콜맨</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5771,22 +5783,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>아디다스 아딜렛 CF 슬리퍼 블랙 CG3427</t>
+          <t>수부 스부 SUBU 방한 패딩 슬리퍼 다운 샌들</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14240672379</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29863371711</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1424067/14240672379.20191216104750.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2986337/29863371711.20211128022436.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>21375</t>
+          <t>44810</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -5800,16 +5812,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>아디다스</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>아디다스</t>
-        </is>
-      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>패션잡화</t>
@@ -5833,22 +5837,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>뉴발란스 슬리퍼 1501 남여공용 쿠셔닝 SD1501IWT</t>
+          <t>노스페이스 뮬 슬리퍼 플리스 A NS93M60A</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28577661847</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29885131160</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2857766/28577661847.20210825212742.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2988513/29885131160.20211130020459.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>15970</t>
+          <t>62700</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -5864,12 +5868,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>노스페이스</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>영원아웃도어</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5957,22 +5961,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>뉴발란스 토앤토 플립플랍 아이보리 리커버리 쪼리 슬리퍼 SD5601GIV</t>
+          <t>콜맨 슈즈 모카 성인 블로퍼 캠핑 털 슬리퍼</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23036090541</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29557513695</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2303609/23036090541.20210730160503.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2955751/29557513695.20211106050351.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>43900</t>
+          <t>38060</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -5988,12 +5992,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>콜맨</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>콜맨</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -6019,22 +6023,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>수부 스부 SUBU 방한 패딩 슬리퍼 다운 샌들</t>
+          <t>뉴발란스 토앤토 플립플랍 아이보리 리커버리 쪼리 슬리퍼 SD5601GIV</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29863371711</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23036090541</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2986337/29863371711.20211128022436.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2303609/23036090541.20210730160503.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>44810</t>
+          <t>43900</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -6048,8 +6052,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>뉴발란스</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>뉴발란스</t>
+        </is>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>패션잡화</t>
@@ -6073,22 +6085,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>노스페이스 뮬 슬리퍼 플리스 A NS93M60A</t>
+          <t>휠라 슬리퍼 테이퍼 1SM00559-013</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29885131160</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25026694528</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2988513/29885131160.20211130020459.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2502669/25026694528.20201128212520.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>62700</t>
+          <t>23860</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -6104,12 +6116,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>노스페이스</t>
+          <t>휠라</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>영원아웃도어</t>
+          <t>휠라</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -6135,22 +6147,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>콜맨 슈즈 모카 성인 블로퍼 캠핑 털 슬리퍼</t>
+          <t>스포디노 어번 세련된 디자인의 다용도 슬리퍼</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29557513695</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17223379786</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2955751/29557513695.20211106050351.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1722337/17223379786.20210811123348.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>38060</t>
+          <t>5700</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -6166,14 +6178,10 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>콜맨</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>콜맨</t>
-        </is>
-      </c>
+          <t>스포디노</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>패션잡화</t>
@@ -6197,22 +6205,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MLB LA 다저스BS 방한 슬리퍼 NW</t>
+          <t>나이키 슬리퍼 슬라이드 빅토리 원 CZ5478-001</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26812605895</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25750091810</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2681260/26812605895.20210622135529.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2575009/25750091810.20210126185932.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>35900</t>
+          <t>18980</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -6228,12 +6236,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>MLB</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>F&amp;F</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6259,22 +6267,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>휠라 슬리퍼 테이퍼 1SM00559-013</t>
+          <t>MLB LA 다저스BS 방한 슬리퍼 NW</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25026694528</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26812605895</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2502669/25026694528.20201128212520.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2681260/26812605895.20210622135529.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>23861</t>
+          <t>35900</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -6290,12 +6298,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>휠라</t>
+          <t>MLB</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>휠라</t>
+          <t>F&amp;F</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6321,22 +6329,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>나이키 슬리퍼 슬라이드 빅토리 원 CZ5478-001</t>
+          <t>뉴발란스 NC02 슬리퍼 SD1101FZK</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25750091810</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25635266691</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2575009/25750091810.20210126185932.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2563526/25635266691.20210117000738.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>18980</t>
+          <t>20380</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -6352,12 +6360,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6383,22 +6391,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>아디다스 듀라모 슬라이드 FY8788</t>
+          <t>SNRD 남녀공용 겨울 슬리퍼 사무실 털실내화 털신</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26124571398</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29671493560</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2612457/26124571398.20211122023300.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2967149/29671493560.20211113232424.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>23630</t>
+          <t>10690</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -6412,16 +6420,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>아디다스</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>아디다스</t>
-        </is>
-      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>패션잡화</t>
@@ -6445,43 +6445,43 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>뉴발란스 NC02 슬리퍼 SD1101FZK</t>
+          <t>나이키 버로우 플리스 패딩 겨울슬리퍼</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25635266691</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83479533195</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2563526/25635266691.20210117000738.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8347953/83479533195.2.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>20380</t>
+          <t>68000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>런칭샵</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
